--- a/我的文档/（实用）常用构件代号.xlsx
+++ b/我的文档/（实用）常用构件代号.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常用构件代号" sheetId="1" r:id="rId1"/>
+    <sheet name="统计" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -214,27 +215,27 @@
     <t>垂直支撑</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>斜拉条</t>
+  </si>
+  <si>
+    <t>XLT</t>
+  </si>
+  <si>
+    <t>单轨吊车梁</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>水平支撑</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>斜拉条</t>
-  </si>
-  <si>
-    <t>XLT</t>
-  </si>
-  <si>
-    <t>单轨吊车梁</t>
-  </si>
-  <si>
-    <t>DDL</t>
-  </si>
-  <si>
-    <t>水平支撑</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>撑杆</t>
   </si>
   <si>
@@ -277,6 +278,18 @@
     <t>YP</t>
   </si>
   <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>总长</t>
+  </si>
+  <si>
     <t>楼梯梁</t>
   </si>
   <si>
@@ -289,6 +302,9 @@
     <t>YT</t>
   </si>
   <si>
+    <t>C250*75*20*2.2</t>
+  </si>
+  <si>
     <t>框架梁</t>
   </si>
   <si>
@@ -332,6 +348,18 @@
   </si>
   <si>
     <t>SJ</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>3.0mm厚镀锌天沟（宽1200mm）</t>
+  </si>
+  <si>
+    <t>长度mm</t>
+  </si>
+  <si>
+    <t>总长m</t>
   </si>
 </sst>
 </file>
@@ -339,12 +367,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,9 +389,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,54 +441,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,17 +464,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,26 +535,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -526,6 +562,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -544,6 +604,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,85 +676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,55 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +756,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -751,21 +802,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -879,6 +915,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -890,15 +950,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,21 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -960,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,159 +1008,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1204,6 +1258,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1499,604 +1558,994 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="7" width="5.375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="8.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="12">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="12">
         <v>41</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="12">
         <v>42</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="12">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="12">
         <v>43</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="12">
         <v>44</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="12">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="12">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="12">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="12">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="12">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="12">
         <v>47</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="12">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="12">
         <v>48</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="12">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="12">
         <v>49</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="12">
+        <v>50</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="12">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="12">
+        <v>51</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="12">
+        <v>52</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="12">
+        <v>53</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="12">
+        <v>34</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="12">
+        <v>54</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="12">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="12">
+        <v>55</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="20"/>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="12">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="12">
+        <v>56</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="20"/>
+      <c r="K17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7990</v>
+      </c>
+      <c r="M17" s="2">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17:N23" si="0">L17*M17/1000</f>
+        <v>255.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="12">
+        <v>57</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="20"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>8090</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="12">
+        <v>58</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="20"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>7990</v>
+      </c>
+      <c r="M19" s="2">
+        <v>256</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>2045.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="12">
+        <v>39</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="12">
+        <v>59</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>7590</v>
+      </c>
+      <c r="M20" s="2">
+        <v>32</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>242.88</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:14">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="15">
+        <v>40</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>7690</v>
+      </c>
+      <c r="M21" s="2">
+        <v>4</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <v>8070</v>
+      </c>
+      <c r="M22" s="2">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>193.68</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <v>7990</v>
+      </c>
+      <c r="M23" s="2">
+        <v>72</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>575.28</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14">
+      <c r="K24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <f>SUM(N17:N23)</f>
+        <v>3376.08</v>
+      </c>
+    </row>
+    <row r="25" spans="11:14">
+      <c r="K25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>18</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25:N28" si="1">L25*M25/1000</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="11:14">
+      <c r="K26" s="6"/>
+      <c r="L26" s="2">
+        <v>7600</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14">
+      <c r="K27" s="6"/>
+      <c r="L27" s="2">
+        <v>8000</v>
+      </c>
+      <c r="M27" s="2">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14">
+      <c r="K28" s="6"/>
+      <c r="L28" s="2">
+        <v>7600</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="29" spans="11:14">
+      <c r="K29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <f>SUM(N25:N28)</f>
+        <v>238.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="K25:K28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7990</v>
+      </c>
+      <c r="D3" s="3">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E9" si="0">C3*D3/1000</f>
+        <v>255.68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>8090</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>7990</v>
+      </c>
+      <c r="D5" s="3">
+        <v>256</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2045.44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>7590</v>
+      </c>
+      <c r="D6" s="3">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>242.88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>7690</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>8070</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>193.68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>7990</v>
+      </c>
+      <c r="D9" s="3">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>575.28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5">
+        <f>SUM(E3:E9)</f>
+        <v>3376.08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="6">
-        <v>50</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="6">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="6">
-        <v>51</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:E14" si="1">C11*D11/1000</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G13" s="6">
-        <v>52</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="6">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6">
-        <v>53</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="6">
-        <v>54</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="6">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="6">
-        <v>55</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="6">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="6">
-        <v>56</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="6">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="6">
-        <v>57</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="6">
-        <v>38</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6">
-        <v>58</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="6">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="6">
-        <v>59</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:9">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="9">
-        <v>40</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="9">
-        <v>60</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="15"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5">
+        <f>SUM(E11:E14)</f>
+        <v>238.8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
